--- a/Data/Processing/2024-02-02/OBEROIRLTY.xlsx
+++ b/Data/Processing/2024-02-02/OBEROIRLTY.xlsx
@@ -6919,7 +6919,7 @@
         <v>1107.22</v>
       </c>
       <c r="D128">
-        <v>1070.78</v>
+        <v>1070.79</v>
       </c>
       <c r="E128">
         <v>1085.59</v>
